--- a/assets/disease.xlsx
+++ b/assets/disease.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\unv\kbs\kbs-test\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E03D98-794F-424A-8D81-AD18A4CBDD81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5993D9-9FE6-494E-A880-660397008FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ملفوف - Cabbage" sheetId="7" r:id="rId1"/>
@@ -3356,10 +3356,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4931,7 +4931,7 @@
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" ht="33">
-      <c r="A49" s="173" t="s">
+      <c r="A49" s="172" t="s">
         <v>117</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -4994,7 +4994,7 @@
       <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6" ht="18">
-      <c r="A54" s="172" t="s">
+      <c r="A54" s="173" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="19" t="s">
@@ -5268,17 +5268,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A54:A58"/>
     <mergeCell ref="A59:A64"/>
     <mergeCell ref="A71:A75"/>
     <mergeCell ref="A65:A70"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A54:A58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -5299,17 +5299,17 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D116" sqref="D116"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28.140625" style="75" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="75" customWidth="1"/>
     <col min="3" max="3" width="72.85546875" style="75" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" style="75" customWidth="1"/>
     <col min="5" max="5" width="20" style="75" customWidth="1"/>
@@ -5355,7 +5355,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="108">
+    <row r="2" spans="1:26" ht="72">
       <c r="A2" s="174" t="s">
         <v>153</v>
       </c>
@@ -5368,7 +5368,10 @@
       <c r="D2" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="56"/>
+      <c r="E2" s="56">
+        <f ca="1">RAND()</f>
+        <v>0.44307675928198831</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -5391,7 +5394,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="144">
+    <row r="3" spans="1:26" ht="72">
       <c r="A3" s="175"/>
       <c r="B3" s="63" t="s">
         <v>157</v>
@@ -5402,7 +5405,10 @@
       <c r="D3" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="62"/>
+      <c r="E3" s="62">
+        <f ca="1">RAND()</f>
+        <v>8.2792496573547036E-2</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -5434,7 +5440,10 @@
       <c r="D4" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="62">
+        <f t="shared" ref="E4:E67" ca="1" si="0">RAND()</f>
+        <v>0.37824218762854056</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -5465,7 +5474,10 @@
       <c r="D5" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="62"/>
+      <c r="E5" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21100152560834651</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -5499,7 +5511,10 @@
       <c r="D6" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="56"/>
+      <c r="E6" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36765246249728423</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -5550,7 +5565,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="108">
+    <row r="8" spans="1:26" ht="54">
       <c r="A8" s="174" t="s">
         <v>166</v>
       </c>
@@ -5563,7 +5578,10 @@
       <c r="D8" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61003446587540122</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -5597,7 +5615,10 @@
       <c r="D9" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="62"/>
+      <c r="E9" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61056286046473252</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -5631,7 +5652,10 @@
       <c r="D10" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99540949404367052</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -5662,7 +5686,10 @@
       <c r="D11" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="62"/>
+      <c r="E11" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11265826644781729</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -5694,8 +5721,9 @@
       <c r="D12" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="56">
-        <v>0.84</v>
+      <c r="E12" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90723115485833439</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5719,7 +5747,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="42.75">
+    <row r="13" spans="1:26" ht="28.5">
       <c r="A13" s="175"/>
       <c r="B13" s="77" t="s">
         <v>179</v>
@@ -5731,7 +5759,8 @@
         <v>181</v>
       </c>
       <c r="E13" s="62">
-        <v>0.5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29046093589703781</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -5796,7 +5825,10 @@
       <c r="D15" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="62"/>
+      <c r="E15" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51897434421397048</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -5819,7 +5851,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="409.5">
+    <row r="16" spans="1:26" ht="288">
       <c r="A16" s="175"/>
       <c r="B16" s="55" t="s">
         <v>186</v>
@@ -5830,7 +5862,10 @@
       <c r="D16" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="56"/>
+      <c r="E16" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70794218934100928</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5861,7 +5896,10 @@
       <c r="D17" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="E17" s="62"/>
+      <c r="E17" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84898922943012567</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -5893,7 +5931,10 @@
       <c r="D18" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="E18" s="56"/>
+      <c r="E18" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82315635576365698</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -5925,7 +5966,10 @@
       <c r="D19" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="62"/>
+      <c r="E19" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49602269608714522</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5957,8 +6001,9 @@
       <c r="D20" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="56">
-        <v>0.2</v>
+      <c r="E20" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17398621649554746</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -5982,7 +6027,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="42.75">
+    <row r="21" spans="1:26" ht="28.5">
       <c r="A21" s="175"/>
       <c r="B21" s="77" t="s">
         <v>193</v>
@@ -5994,7 +6039,8 @@
         <v>55</v>
       </c>
       <c r="E21" s="62">
-        <v>0.1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59219241630263009</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -6046,7 +6092,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="99.75">
+    <row r="23" spans="1:26" ht="57">
       <c r="A23" s="174" t="s">
         <v>194</v>
       </c>
@@ -6059,7 +6105,10 @@
       <c r="D23" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="E23" s="62"/>
+      <c r="E23" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39095616596411775</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -6090,7 +6139,10 @@
       <c r="D24" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="E24" s="56"/>
+      <c r="E24" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18681980805844556</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -6113,7 +6165,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="42.75">
+    <row r="25" spans="1:26" ht="28.5">
       <c r="A25" s="175"/>
       <c r="B25" s="77" t="s">
         <v>198</v>
@@ -6125,7 +6177,8 @@
         <v>176</v>
       </c>
       <c r="E25" s="62">
-        <v>0.3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49364819597049947</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -6177,7 +6230,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="90">
+    <row r="27" spans="1:26" ht="54">
       <c r="A27" s="174" t="s">
         <v>199</v>
       </c>
@@ -6190,7 +6243,10 @@
       <c r="D27" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82483170950332829</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -6213,7 +6269,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="306">
+    <row r="28" spans="1:26" ht="162">
       <c r="A28" s="175"/>
       <c r="B28" s="59" t="s">
         <v>203</v>
@@ -6224,7 +6280,10 @@
       <c r="D28" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="56"/>
+      <c r="E28" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62356729119455401</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -6247,7 +6306,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="108">
+    <row r="29" spans="1:26" ht="54">
       <c r="A29" s="175"/>
       <c r="B29" s="63" t="s">
         <v>206</v>
@@ -6258,7 +6317,10 @@
       <c r="D29" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="E29" s="62"/>
+      <c r="E29" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9873790643864494</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -6281,7 +6343,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="144">
+    <row r="30" spans="1:26" ht="72">
       <c r="A30" s="175"/>
       <c r="B30" s="59" t="s">
         <v>209</v>
@@ -6292,7 +6354,10 @@
       <c r="D30" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="E30" s="56"/>
+      <c r="E30" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97339564489012498</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -6315,7 +6380,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="42.75">
+    <row r="31" spans="1:26" ht="36">
       <c r="A31" s="175"/>
       <c r="B31" s="77" t="s">
         <v>212</v>
@@ -6326,7 +6391,10 @@
       <c r="D31" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="E31" s="62"/>
+      <c r="E31" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83346117608516579</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -6386,7 +6454,10 @@
       <c r="D33" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="62"/>
+      <c r="E33" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4163548869378046E-2</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -6418,7 +6489,10 @@
       <c r="D34" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="56"/>
+      <c r="E34" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95661797845289165</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -6441,7 +6515,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="54">
+    <row r="35" spans="1:26" ht="18">
       <c r="A35" s="174" t="s">
         <v>217</v>
       </c>
@@ -6454,7 +6528,10 @@
       <c r="D35" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="E35" s="62"/>
+      <c r="E35" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.265681100810752E-2</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -6485,7 +6562,10 @@
       <c r="D36" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="56"/>
+      <c r="E36" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23124939427386737</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -6517,7 +6597,10 @@
       <c r="D37" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="62"/>
+      <c r="E37" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4179653418117445</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -6549,7 +6632,10 @@
       <c r="D38" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="E38" s="56"/>
+      <c r="E38" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41902331350426081</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -6572,7 +6658,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="42.75">
+    <row r="39" spans="1:26" ht="28.5">
       <c r="A39" s="175"/>
       <c r="B39" s="77" t="s">
         <v>225</v>
@@ -6583,7 +6669,10 @@
       <c r="D39" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="62"/>
+      <c r="E39" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61071810406579108</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -6643,7 +6732,10 @@
       <c r="D41" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="E41" s="62"/>
+      <c r="E41" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34096440764501368</v>
+      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -6666,7 +6758,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="144">
+    <row r="42" spans="1:26" ht="72">
       <c r="A42" s="174" t="s">
         <v>228</v>
       </c>
@@ -6679,7 +6771,10 @@
       <c r="D42" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="E42" s="56"/>
+      <c r="E42" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25363966172351893</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -6710,7 +6805,10 @@
       <c r="D43" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="62"/>
+      <c r="E43" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83972385701547048</v>
+      </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -6742,7 +6840,10 @@
       <c r="D44" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="56"/>
+      <c r="E44" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24755667990479047</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -6765,7 +6866,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="42.75">
+    <row r="45" spans="1:26" ht="28.5">
       <c r="A45" s="175"/>
       <c r="B45" s="77" t="s">
         <v>231</v>
@@ -6776,7 +6877,10 @@
       <c r="D45" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="E45" s="62"/>
+      <c r="E45" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50740684105093559</v>
+      </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -6836,7 +6940,10 @@
       <c r="D47" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="E47" s="62"/>
+      <c r="E47" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36075841281164245</v>
+      </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -6869,7 +6976,10 @@
       <c r="D48" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="E48" s="56"/>
+      <c r="E48" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98398142345587147</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -6901,7 +7011,10 @@
       <c r="D49" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="E49" s="62"/>
+      <c r="E49" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57471620830195025</v>
+      </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -6933,7 +7046,10 @@
       <c r="D50" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="E50" s="56"/>
+      <c r="E50" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67096162004810889</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -6966,7 +7082,8 @@
         <v>241</v>
       </c>
       <c r="E51" s="62">
-        <v>0.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47518304458842431</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -6990,7 +7107,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="42.75">
+    <row r="52" spans="1:26" ht="28.5">
       <c r="A52" s="175"/>
       <c r="B52" s="51" t="s">
         <v>242</v>
@@ -7001,8 +7118,9 @@
       <c r="D52" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="56">
-        <v>0.2</v>
+      <c r="E52" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72532407207310534</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -7067,7 +7185,10 @@
       <c r="D54" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="56"/>
+      <c r="E54" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59332347144208075</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -7098,7 +7219,10 @@
       <c r="D55" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="62"/>
+      <c r="E55" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15455624865430895</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -7130,7 +7254,10 @@
       <c r="D56" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="56"/>
+      <c r="E56" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78250978034260055</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -7163,7 +7290,8 @@
         <v>176</v>
       </c>
       <c r="E57" s="62">
-        <v>0.15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59354796380506603</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -7187,7 +7315,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="72">
+    <row r="58" spans="1:26" ht="54">
       <c r="A58" s="175"/>
       <c r="B58" s="61" t="s">
         <v>246</v>
@@ -7198,7 +7326,10 @@
       <c r="D58" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="E58" s="56"/>
+      <c r="E58" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5671350876834724E-3</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -7259,7 +7390,10 @@
       <c r="D60" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="56"/>
+      <c r="E60" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18899928109416253</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -7291,7 +7425,10 @@
       <c r="D61" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="E61" s="62"/>
+      <c r="E61" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20998852736652873</v>
+      </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -7323,7 +7460,10 @@
       <c r="D62" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="E62" s="56"/>
+      <c r="E62" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41418052885000578</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -7346,7 +7486,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="42.75">
+    <row r="63" spans="1:26" ht="28.5">
       <c r="A63" s="175"/>
       <c r="B63" s="77" t="s">
         <v>251</v>
@@ -7357,7 +7497,10 @@
       <c r="D63" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="62"/>
+      <c r="E63" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8878023397248875E-2</v>
+      </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -7418,7 +7561,10 @@
       <c r="D65" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="E65" s="62"/>
+      <c r="E65" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14558505859195869</v>
+      </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -7450,7 +7596,10 @@
       <c r="D66" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="56"/>
+      <c r="E66" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79809594002457529</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -7483,7 +7632,8 @@
         <v>256</v>
       </c>
       <c r="E67" s="62">
-        <v>0.15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80502170003846296</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -7516,8 +7666,9 @@
       <c r="D68" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="E68" s="56">
-        <v>0.2</v>
+      <c r="E68" s="62">
+        <f t="shared" ref="E68:E117" ca="1" si="1">RAND()</f>
+        <v>6.183268431967015E-2</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -7551,7 +7702,8 @@
         <v>176</v>
       </c>
       <c r="E69" s="62">
-        <v>0.1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86417771054640558</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -7584,7 +7736,10 @@
       <c r="D70" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="56"/>
+      <c r="E70" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.23929800461030337</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -7607,7 +7762,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="42.75">
+    <row r="71" spans="1:26" ht="28.5">
       <c r="A71" s="175"/>
       <c r="B71" s="77" t="s">
         <v>257</v>
@@ -7619,7 +7774,8 @@
         <v>259</v>
       </c>
       <c r="E71" s="62">
-        <v>0.3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15104211875294582</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -7681,7 +7837,10 @@
       <c r="D73" s="68" t="s">
         <v>262</v>
       </c>
-      <c r="E73" s="62"/>
+      <c r="E73" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97610852382233249</v>
+      </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -7712,8 +7871,9 @@
       <c r="D74" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="E74" s="56">
-        <v>0.4</v>
+      <c r="E74" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.68437064907348555</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -7746,7 +7906,8 @@
         <v>264</v>
       </c>
       <c r="E75" s="62">
-        <v>0.6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5091140681186157</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -7770,7 +7931,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="42.75">
+    <row r="76" spans="1:26" ht="28.5">
       <c r="A76" s="175"/>
       <c r="B76" s="51" t="s">
         <v>265</v>
@@ -7781,8 +7942,9 @@
       <c r="D76" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="E76" s="56">
-        <v>0.9</v>
+      <c r="E76" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64345853836943445</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -7834,7 +7996,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="54">
+    <row r="78" spans="1:26" ht="36">
       <c r="A78" s="73"/>
       <c r="B78" s="54" t="s">
         <v>268</v>
@@ -7845,7 +8007,10 @@
       <c r="D78" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="E78" s="56"/>
+      <c r="E78" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50113640524700576</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -7868,7 +8033,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="198">
+    <row r="79" spans="1:26" ht="108">
       <c r="A79" s="177" t="s">
         <v>271</v>
       </c>
@@ -7882,7 +8047,8 @@
         <v>274</v>
       </c>
       <c r="E79" s="62">
-        <v>0.5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.24438869634764915</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -7906,7 +8072,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="90">
+    <row r="80" spans="1:26" ht="54">
       <c r="A80" s="175"/>
       <c r="B80" s="54" t="s">
         <v>275</v>
@@ -7917,7 +8083,10 @@
       <c r="D80" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="E80" s="56"/>
+      <c r="E80" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.61366433061710746</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -7940,13 +8109,16 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="42.75">
+    <row r="81" spans="1:26" ht="28.5">
       <c r="A81" s="175"/>
       <c r="B81" s="77" t="s">
         <v>278</v>
       </c>
       <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
+      <c r="E81" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72488480636652086</v>
+      </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -7997,7 +8169,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="54">
+    <row r="83" spans="1:26" ht="36">
       <c r="A83" s="174" t="s">
         <v>279</v>
       </c>
@@ -8010,7 +8182,10 @@
       <c r="D83" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="E83" s="62"/>
+      <c r="E83" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54513905732294421</v>
+      </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -8033,7 +8208,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" ht="126">
+    <row r="84" spans="1:26" ht="72">
       <c r="A84" s="175"/>
       <c r="B84" s="63" t="s">
         <v>283</v>
@@ -8044,7 +8219,10 @@
       <c r="D84" s="67" t="s">
         <v>285</v>
       </c>
-      <c r="E84" s="56"/>
+      <c r="E84" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.503708255271647E-2</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -8075,7 +8253,10 @@
       <c r="D85" s="68" t="s">
         <v>287</v>
       </c>
-      <c r="E85" s="62"/>
+      <c r="E85" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31677510567302292</v>
+      </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -8107,7 +8288,10 @@
       <c r="D86" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="E86" s="56"/>
+      <c r="E86" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.40071415598888294</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -8130,7 +8314,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="42.75">
+    <row r="87" spans="1:26" ht="28.5">
       <c r="A87" s="175"/>
       <c r="B87" s="77" t="s">
         <v>288</v>
@@ -8141,7 +8325,10 @@
       <c r="D87" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="E87" s="62"/>
+      <c r="E87" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88611806510548241</v>
+      </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -8192,7 +8379,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="72">
+    <row r="89" spans="1:26" ht="36">
       <c r="A89" s="174" t="s">
         <v>291</v>
       </c>
@@ -8205,7 +8392,10 @@
       <c r="D89" s="68" t="s">
         <v>294</v>
       </c>
-      <c r="E89" s="62"/>
+      <c r="E89" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.80796825353206514</v>
+      </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -8237,7 +8427,10 @@
       <c r="D90" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="E90" s="56"/>
+      <c r="E90" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38055004782488133</v>
+      </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -8269,7 +8462,10 @@
       <c r="D91" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="E91" s="62"/>
+      <c r="E91" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6847524551308497</v>
+      </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -8292,7 +8488,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" ht="72">
+    <row r="92" spans="1:26" ht="54">
       <c r="A92" s="175"/>
       <c r="B92" s="65" t="s">
         <v>299</v>
@@ -8303,7 +8499,10 @@
       <c r="D92" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="E92" s="56"/>
+      <c r="E92" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16241034113452979</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -8367,7 +8566,10 @@
       <c r="D94" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="E94" s="56"/>
+      <c r="E94" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14507978247530939</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -8398,7 +8600,10 @@
       <c r="D95" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="E95" s="62"/>
+      <c r="E95" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.29108896321672462</v>
+      </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -8430,7 +8635,10 @@
       <c r="D96" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="E96" s="56"/>
+      <c r="E96" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.82645746774100781</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -8453,7 +8661,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="42.75">
+    <row r="97" spans="1:26" ht="36">
       <c r="A97" s="175"/>
       <c r="B97" s="77" t="s">
         <v>308</v>
@@ -8464,7 +8672,10 @@
       <c r="D97" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="E97" s="62"/>
+      <c r="E97" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4740197879734915E-2</v>
+      </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -8515,7 +8726,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="72">
+    <row r="99" spans="1:26" ht="54">
       <c r="A99" s="174" t="s">
         <v>311</v>
       </c>
@@ -8528,7 +8739,10 @@
       <c r="D99" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="E99" s="62"/>
+      <c r="E99" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13280460970842001</v>
+      </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -8560,7 +8774,10 @@
       <c r="D100" s="67" t="s">
         <v>314</v>
       </c>
-      <c r="E100" s="56"/>
+      <c r="E100" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83741220531253335</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -8592,7 +8809,10 @@
       <c r="D101" s="68" t="s">
         <v>316</v>
       </c>
-      <c r="E101" s="62"/>
+      <c r="E101" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.8099032541916293E-2</v>
+      </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -8615,7 +8835,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="72">
+    <row r="102" spans="1:26" ht="71.25">
       <c r="A102" s="175"/>
       <c r="B102" s="81" t="s">
         <v>317</v>
@@ -8626,7 +8846,10 @@
       <c r="D102" s="56" t="s">
         <v>319</v>
       </c>
-      <c r="E102" s="56"/>
+      <c r="E102" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86042544924303022</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -8677,7 +8900,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="54">
+    <row r="104" spans="1:26" ht="36">
       <c r="A104" s="174" t="s">
         <v>320</v>
       </c>
@@ -8690,7 +8913,10 @@
       <c r="D104" s="79" t="s">
         <v>323</v>
       </c>
-      <c r="E104" s="56"/>
+      <c r="E104" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2045732565882179</v>
+      </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -8721,7 +8947,10 @@
       <c r="D105" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="E105" s="62"/>
+      <c r="E105" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.29112443680410793</v>
+      </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -8752,7 +8981,10 @@
       <c r="D106" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="E106" s="56"/>
+      <c r="E106" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.55298536573280177</v>
+      </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -8784,7 +9016,10 @@
       <c r="D107" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="E107" s="62"/>
+      <c r="E107" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36707692027378003</v>
+      </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -8818,7 +9053,10 @@
       <c r="D108" s="67" t="s">
         <v>330</v>
       </c>
-      <c r="E108" s="56"/>
+      <c r="E108" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.32118721183240995</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -8878,7 +9116,10 @@
       <c r="D110" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="E110" s="56"/>
+      <c r="E110" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8390380610081859</v>
+      </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
@@ -8901,7 +9142,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="162">
+    <row r="111" spans="1:26" ht="72">
       <c r="A111" s="174" t="s">
         <v>333</v>
       </c>
@@ -8914,7 +9155,10 @@
       <c r="D111" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="E111" s="62"/>
+      <c r="E111" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4670295259501609</v>
+      </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -8945,7 +9189,10 @@
       <c r="D112" s="67" t="s">
         <v>338</v>
       </c>
-      <c r="E112" s="56"/>
+      <c r="E112" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53687659582768399</v>
+      </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
@@ -8977,7 +9224,10 @@
       <c r="D113" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="E113" s="62"/>
+      <c r="E113" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.18700647196123144</v>
+      </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -9009,8 +9259,9 @@
       <c r="D114" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="E114" s="56">
-        <v>0.15</v>
+      <c r="E114" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.19912686093922749</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -9044,7 +9295,8 @@
         <v>342</v>
       </c>
       <c r="E115" s="62">
-        <v>0.15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.18365974337348379</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -9068,7 +9320,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" ht="42.75">
+    <row r="116" spans="1:26" ht="28.5">
       <c r="A116" s="175"/>
       <c r="B116" s="51" t="s">
         <v>343</v>
@@ -9079,7 +9331,10 @@
       <c r="D116" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="E116" s="56"/>
+      <c r="E116" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43091532284303158</v>
+      </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -33856,6 +34111,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A99:A103"/>
     <mergeCell ref="A104:A109"/>
     <mergeCell ref="A111:A117"/>
@@ -33866,15 +34130,6 @@
     <mergeCell ref="A83:A88"/>
     <mergeCell ref="A79:A82"/>
     <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36635,6 +36890,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A32:A42"/>
     <mergeCell ref="A78:A84"/>
     <mergeCell ref="A48:A53"/>
     <mergeCell ref="A54:A59"/>
@@ -36642,12 +36903,6 @@
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="A72:A77"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="A32:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37717,12 +37972,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A29"/>
     <mergeCell ref="A69:A73"/>
     <mergeCell ref="A74:A79"/>
     <mergeCell ref="A80:A83"/>
@@ -37732,6 +37981,12 @@
     <mergeCell ref="A49:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B53" r:id="rId1" xr:uid="{42E4608A-BCA2-4465-A2F4-0A43E1F47761}"/>
@@ -37748,7 +38003,7 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
